--- a/public/sample_uploads/investor_kpi_mappings_test.xlsx
+++ b/public/sample_uploads/investor_kpi_mappings_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t xml:space="preserve">Investor</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">Upper Threshold</t>
   </si>
   <si>
+    <t xml:space="preserve">Cumulate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Demo Fund Company</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Test reported Name 2</t>
@@ -161,7 +167,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -171,6 +177,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -298,10 +308,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.47265625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -349,64 +359,73 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/investor_kpi_mappings_test.xlsx
+++ b/public/sample_uploads/investor_kpi_mappings_test.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
-    <t xml:space="preserve">Investor</t>
+    <t xml:space="preserve">Stakeholder</t>
   </si>
   <si>
     <t xml:space="preserve">Reported Kpi Name</t>
@@ -180,7 +180,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,8 +310,8 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.47265625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
